--- a/matjari/data/product-type-list.xlsx
+++ b/matjari/data/product-type-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kandil/code/aidakd/matjari/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kandil/code/aidakd/matjari/matjari/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{040DF0AB-27E4-2E47-B8DA-C0B0551B2C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1AEA6-024B-6F47-97C0-D861D839967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{9291EF9C-361B-3449-BD6B-94347CE0CA25}"/>
+    <workbookView xWindow="5180" yWindow="2640" windowWidth="27240" windowHeight="15940" xr2:uid="{9291EF9C-361B-3449-BD6B-94347CE0CA25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,12 +416,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -436,9 +442,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DCA10F-FE03-7B40-A5DD-D6298BCA10FB}">
   <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,12 +777,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -790,12 +797,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -830,12 +837,12 @@
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -850,22 +857,22 @@
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
